--- a/stm32f405RG_64PIN.xlsx
+++ b/stm32f405RG_64PIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\PCB Design\MTv5Beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\GitHub\WSNv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>VBAT</t>
   </si>
@@ -252,24 +252,156 @@
   </si>
   <si>
     <t>OSC_OUT</t>
+  </si>
+  <si>
+    <t>LED Red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Green</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Blue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDO ENABLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0_Pushbutton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2 RXD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2 TXD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI3 NSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1 MISO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1 SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI1 MOSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS INT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT Voltage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS CONVST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PushButton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2 SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2 MISO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI2 MOSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRF CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRF CE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRF INT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBUS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB DM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB DP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDIO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDCLK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI3 SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI3 MISO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI3 MOSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1 SCL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1 SDA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -277,20 +409,58 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -376,11 +546,26 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,9 +624,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,7 +674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,30 +936,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AC29"/>
+  <dimension ref="D2:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="2" customWidth="1"/>
-    <col min="12" max="27" width="5.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="4" width="9.125" style="1"/>
+    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="2" customWidth="1"/>
+    <col min="12" max="27" width="5.75" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.75" style="3" customWidth="1"/>
+    <col min="29" max="29" width="16.75" style="1" customWidth="1"/>
+    <col min="30" max="30" width="26.25" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
@@ -750,7 +967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
@@ -758,7 +975,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
@@ -766,7 +983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
@@ -774,7 +991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="str">
         <f>"TTa"</f>
         <v>TTa</v>
@@ -783,12 +1000,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="4:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D8" s="4" t="s">
         <v>66</v>
       </c>
@@ -797,7 +1014,39 @@
       <c r="K8" s="2"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="10" spans="4:29" s="5" customFormat="1" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:30" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB9" s="25"/>
+    </row>
+    <row r="10" spans="4:30" s="5" customFormat="1" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I10" s="22"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -852,7 +1101,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="4:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:30" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="11">
@@ -906,7 +1155,8 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="13"/>
     </row>
-    <row r="12" spans="4:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="27"/>
       <c r="J12" s="14" t="s">
         <v>0</v>
       </c>
@@ -935,8 +1185,10 @@
       <c r="AC12" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="4:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="28"/>
+    </row>
+    <row r="13" spans="4:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="27"/>
       <c r="J13" s="9" t="s">
         <v>1</v>
       </c>
@@ -965,9 +1217,10 @@
       <c r="AC13" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="4:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="21" t="s">
+      <c r="AD13" s="28"/>
+    </row>
+    <row r="14" spans="4:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="32" t="s">
         <v>72</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -998,9 +1251,12 @@
       <c r="AC14" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="4:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="21" t="s">
+      <c r="AD14" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="4:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="32" t="s">
         <v>73</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -1031,9 +1287,12 @@
       <c r="AC15" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="4:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="21" t="s">
+      <c r="AD15" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="4:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="32" t="s">
         <v>74</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -1064,9 +1323,12 @@
       <c r="AC16" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="21" t="s">
+      <c r="AD16" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="32" t="s">
         <v>75</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -1097,9 +1359,10 @@
       <c r="AC17" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="21" t="s">
+      <c r="AD17" s="28"/>
+    </row>
+    <row r="18" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="32" t="s">
         <v>66</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -1132,8 +1395,14 @@
       <c r="AC18" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="J19" s="9" t="s">
         <v>7</v>
       </c>
@@ -1162,8 +1431,12 @@
       <c r="AC19" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="28"/>
+    </row>
+    <row r="20" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="30" t="s">
+        <v>77</v>
+      </c>
       <c r="J20" s="9" t="s">
         <v>8</v>
       </c>
@@ -1192,8 +1465,12 @@
       <c r="AC20" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="28"/>
+    </row>
+    <row r="21" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="J21" s="9" t="s">
         <v>9</v>
       </c>
@@ -1222,8 +1499,14 @@
       <c r="AC21" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD21" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="33" t="s">
+        <v>79</v>
+      </c>
       <c r="J22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1252,8 +1535,12 @@
       <c r="AC22" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD22" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="27"/>
       <c r="J23" s="9" t="s">
         <v>11</v>
       </c>
@@ -1282,8 +1569,12 @@
       <c r="AC23" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD23" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="27"/>
       <c r="J24" s="9" t="s">
         <v>12</v>
       </c>
@@ -1312,8 +1603,14 @@
       <c r="AC24" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD24" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="J25" s="9" t="s">
         <v>13</v>
       </c>
@@ -1342,8 +1639,12 @@
       <c r="AC25" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD25" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="27"/>
       <c r="J26" s="9" t="s">
         <v>14</v>
       </c>
@@ -1372,8 +1673,14 @@
       <c r="AC26" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="9:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD26" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="9:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="J27" s="9" t="s">
         <v>15</v>
       </c>
@@ -1402,8 +1709,11 @@
       <c r="AC27" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="9:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD27" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="9:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J28" s="9"/>
       <c r="K28" s="18"/>
       <c r="L28" s="19">
@@ -1457,7 +1767,7 @@
       <c r="AB28" s="20"/>
       <c r="AC28" s="13"/>
     </row>
-    <row r="29" spans="9:29" s="5" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:30" s="5" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I29" s="22"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1512,10 +1822,49 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="7"/>
     </row>
+    <row r="30" spans="9:30" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L30" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="R30" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="S30" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="T30" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="U30" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="V30" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="W30" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M18:Z20"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
